--- a/Downer/39016/toadd1.xlsx
+++ b/Downer/39016/toadd1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\39016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9461C185-3A12-4E1E-8A25-070F159358BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61CA49F-3F21-4C07-AB8B-7129F5C6F9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="675" windowWidth="28890" windowHeight="19560" xr2:uid="{D6FB1261-C290-4EBE-B420-98AE580F9017}"/>
+    <workbookView xWindow="9960" yWindow="2490" windowWidth="26730" windowHeight="18030" xr2:uid="{D6FB1261-C290-4EBE-B420-98AE580F9017}"/>
   </bookViews>
   <sheets>
     <sheet name="to_add" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="96">
   <si>
     <t>Step Id</t>
   </si>
@@ -59,6 +59,255 @@
   </si>
   <si>
     <t>Tier 6</t>
+  </si>
+  <si>
+    <t>33600256-a377-4ac1-a7a6-4e67ec9a1cee</t>
+  </si>
+  <si>
+    <t>work-in-progress</t>
+  </si>
+  <si>
+    <t>7633da16f5ea4e422f47e6bc1ef93646c8a4a2fb718aa86c7ba4fecb0d5362ab</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>Site QA</t>
+  </si>
+  <si>
+    <t>Utility Services</t>
+  </si>
+  <si>
+    <t>Area 1</t>
+  </si>
+  <si>
+    <t>RSU00R CH 1550 to CH 1700</t>
+  </si>
+  <si>
+    <t>ITP - Utility Trench</t>
+  </si>
+  <si>
+    <t>6c970634-2962-4637-8e63-98e9510f4996</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>2c7f82e493918989315b32fb6e08f2e0c04fb816461613049598363d5700b42c</t>
+  </si>
+  <si>
+    <t>Earthworks</t>
+  </si>
+  <si>
+    <t>Area 1A (CH1540-1740)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AREA 1A CH1520-1740 BULK EARTHWORKS </t>
+  </si>
+  <si>
+    <t>b8b49ab7-b52e-4878-b579-feac86fc9545</t>
+  </si>
+  <si>
+    <t>c3fd7e996b01855f3d27b4cabfaaf193d7e7cca8b3f4586813e6ebe2296fd785</t>
+  </si>
+  <si>
+    <t>AREA 1A CH1540-CH1740 SUBSOILS (CENTRE &amp; PERIMETER)</t>
+  </si>
+  <si>
+    <t>5a3dd6d7-98e1-4061-8ec2-da370407d699</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AREA 1A CH1540-CH1740 SUBSOILS (SWALE)</t>
+  </si>
+  <si>
+    <t>63bbc978-7687-4f04-a315-6eb0d032143f</t>
+  </si>
+  <si>
+    <t>b64c69fb4abef48fbce438b985333fe7e1c3b427fc12a68194aa5cf437db7b95</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AREA 1A CH1540-CH1740 PAVEMENT DRAINS</t>
+  </si>
+  <si>
+    <t>32baeb54-805d-4061-a8ae-3636ad6e2b16</t>
+  </si>
+  <si>
+    <t>Area 1B (CH1740-CH1990)</t>
+  </si>
+  <si>
+    <t>AREA 1B CH1740-CH1990 BULK EARTHWORKS</t>
+  </si>
+  <si>
+    <t>8c0bd824-2790-4d1c-ae00-cc7475ef6001</t>
+  </si>
+  <si>
+    <t>bac6fb00113e4149c0a3115ba5fd7868646f20422b1c36cf5407a24a943e2aa4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AREA 1B CH1740-CH1990 SIL</t>
+  </si>
+  <si>
+    <t>5cadb1eb-a78c-46cb-bc4d-7041fd14843d</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AREA 1B CH1740-CH1990 SUBSOIL DRAINAGE (CENTRE &amp; PERIMETER)</t>
+  </si>
+  <si>
+    <t>003c6238-9e49-456f-8736-fadc7299b4f6</t>
+  </si>
+  <si>
+    <t>1e583f8b70273eabf004fcc38eca8c02710d652e820a3ccc1f9a151f83465210</t>
+  </si>
+  <si>
+    <t>Pavements - Type 1 &amp; Type 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area 1 </t>
+  </si>
+  <si>
+    <t>Area 1A - CH1600 to CH1730</t>
+  </si>
+  <si>
+    <t>ITP - Pavement &amp; Surfacing - Kerb - Rev C</t>
+  </si>
+  <si>
+    <t>524252ad-4629-45c2-aa16-d5f9e975bb57</t>
+  </si>
+  <si>
+    <t>d19eeaa84687926eab71cf54cebaa826ad3d91a2f810c8df2789de9358c46668</t>
+  </si>
+  <si>
+    <t>Area 1B - CH1730 to CH1960</t>
+  </si>
+  <si>
+    <t>ITP - Pavement &amp; Surfacing - Subbase - Rev E</t>
+  </si>
+  <si>
+    <t>a5469e71-9c58-43da-b65d-eb3f0d370c2b</t>
+  </si>
+  <si>
+    <t>0463d09a-c7e4-483b-94c3-f66074c3aa75</t>
+  </si>
+  <si>
+    <t>63b1e491901cfe89030f9bfcf85c2fe0f9b00560a68517104fc1e1b1037eef12</t>
+  </si>
+  <si>
+    <t>Area 3</t>
+  </si>
+  <si>
+    <t>Area 3 - CH1020 to CH1200</t>
+  </si>
+  <si>
+    <t>ITP - Pavement &amp; Surfacing - Basecourse - Rev 1</t>
+  </si>
+  <si>
+    <t>5cc286e6-5d5c-4331-b87e-9b669573a0be</t>
+  </si>
+  <si>
+    <t>a83c92be17ef255d65b7d7d79441fcf3ffebdf903e4e863bc0190c282f1da53a</t>
+  </si>
+  <si>
+    <t>Surfacing</t>
+  </si>
+  <si>
+    <t>Peacockes Road</t>
+  </si>
+  <si>
+    <t>Peacocke East - CH1500 to CH1270 (HEB Tie-in)</t>
+  </si>
+  <si>
+    <t>ITP - Pavement &amp; Surfacing - Sealing - Rev 1</t>
+  </si>
+  <si>
+    <t>aa800302-d167-4d16-9a24-1faae902af12</t>
+  </si>
+  <si>
+    <t>not-applicable</t>
+  </si>
+  <si>
+    <t>acc2b89cb863d8d6e6735a13cbb5225bf02fad07656ee7446412807f5fbc421c</t>
+  </si>
+  <si>
+    <t>Traffic Signals</t>
+  </si>
+  <si>
+    <t>Peacockes Road/ RS22 (REMOVED/CANCELLED)</t>
+  </si>
+  <si>
+    <t>ITP - Traffic Signals - Rev B</t>
+  </si>
+  <si>
+    <t>46906d33-185a-43d9-8721-c5ddfcafb19c</t>
+  </si>
+  <si>
+    <t>f2478c84926fe662594ba8557dff929c9396882445c4a69fd6fd36686b397d03</t>
+  </si>
+  <si>
+    <t>Eastern Gully Bridge</t>
+  </si>
+  <si>
+    <t>Piling</t>
+  </si>
+  <si>
+    <t>ITP - Piling: EASTERN GULLY BRIDGE</t>
+  </si>
+  <si>
+    <t>ca527faa-59ce-442a-86c5-2ef3115e9fed</t>
+  </si>
+  <si>
+    <t>fec3058051f3508964e0c71c2171b052528e9896e8bc61497ec5db7f73755646</t>
+  </si>
+  <si>
+    <t>Bridge Barriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final QA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITP - Precast Barrier EGB </t>
+  </si>
+  <si>
+    <t>89b9a109-b1bc-4730-bb10-9abe5e603b21</t>
+  </si>
+  <si>
+    <t>220b8ccdf1bde5ca4538240bfbc232b17b9ed86b1a1d820aba4879bec05217fc</t>
+  </si>
+  <si>
+    <t>Stitch Pour QA</t>
+  </si>
+  <si>
+    <t>3rd Pour on 13/9/2024</t>
+  </si>
+  <si>
+    <t>9b0e79ba-5568-4e7f-b1da-fafccac0194a</t>
+  </si>
+  <si>
+    <t>1st Pour on 3/9/2024</t>
+  </si>
+  <si>
+    <t>44731dc9-2aa8-4bd7-a112-40240aa0132f</t>
+  </si>
+  <si>
+    <t>2nd Pour on 9/9/2024</t>
+  </si>
+  <si>
+    <t>abbf8f5d-5adc-433e-b8c7-357349c1a090</t>
+  </si>
+  <si>
+    <t>Last Pour on 20/9/2024</t>
+  </si>
+  <si>
+    <t>15672725-113e-4129-a16c-f64b642947d7</t>
+  </si>
+  <si>
+    <t>Mangakootukutuku Bridge</t>
+  </si>
+  <si>
+    <t>Final QA</t>
+  </si>
+  <si>
+    <t>ITP - Precast Barrier</t>
   </si>
 </sst>
 </file>
@@ -201,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +628,24 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -542,8 +809,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -919,15 +1190,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F2ADC0-CB01-4C78-A0B7-4CDD953FBAB6}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="68.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -967,6 +1253,926 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
